--- a/script/Pr_temp_spreadsheets/05_00_ARC05_10.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_10.xlsx
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e1fda255-c007-4898-b8ae-19593f348219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74bd03bd-9511-4243-a90a-d1ee1de7f269}">
   <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -2656,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6f5f39ab-41bd-4db0-9fb0-f8cb8b7d0564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246864d2-6cd5-4942-89e4-1b8c2cde2412}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
